--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T10:21:29+00:00</t>
+    <t>2023-03-13T18:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T18:07:21+00:00</t>
+    <t>2023-03-14T19:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T19:08:37+00:00</t>
+    <t>2023-03-14T19:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T19:49:34+00:00</t>
+    <t>2023-03-15T13:07:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T13:07:12+00:00</t>
+    <t>2023-03-15T13:24:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T13:24:47+00:00</t>
+    <t>2023-03-15T15:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T15:43:39+00:00</t>
+    <t>2023-03-15T16:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T16:12:24+00:00</t>
+    <t>2023-03-15T16:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T16:40:25+00:00</t>
+    <t>2023-03-15T16:56:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T16:56:52+00:00</t>
+    <t>2023-03-15T17:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T17:17:34+00:00</t>
+    <t>2023-03-17T08:28:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:28:50+00:00</t>
+    <t>2023-03-17T08:32:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:32:04+00:00</t>
+    <t>2023-03-17T08:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:35:59+00:00</t>
+    <t>2023-03-17T08:47:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
+++ b/ig/contenu-pages/StructureDefinition-ror-location-geolocation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-17T08:47:19+00:00</t>
+    <t>2023-03-17T08:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
